--- a/bills_test/example_0.xlsx
+++ b/bills_test/example_0.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\OneDrive\Desktop\GIT\Load_profiles_from_bills\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mattia\desktop\GIT\LoBi\bills_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86C1AE8-7DAB-4192-96A6-1245B8B5F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BAF72D-ADEE-43CF-9BA4-69C4B30D1408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="2040" windowWidth="15375" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="1275" windowWidth="26865" windowHeight="14925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="bills" sheetId="1" r:id="rId1"/>
+    <sheet name="loads" sheetId="2" r:id="rId2"/>
+    <sheet name="festivities" sheetId="3" r:id="rId3"/>
+    <sheet name="holidays" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,55 +39,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>kWh</t>
+    <t>Month</t>
   </si>
   <si>
-    <t>Tot</t>
+    <t>F1</t>
   </si>
   <si>
-    <t>Jan</t>
+    <t>F2</t>
   </si>
   <si>
-    <t>Feb</t>
+    <t>F3</t>
   </si>
   <si>
-    <t>Mar</t>
+    <t>Hour</t>
   </si>
   <si>
-    <t>Apr</t>
+    <t>Monday</t>
   </si>
   <si>
-    <t>May</t>
+    <t>Tuesday</t>
   </si>
   <si>
-    <t>Jun</t>
+    <t>Wednesday</t>
   </si>
   <si>
-    <t>Jul</t>
+    <t>Thursday</t>
   </si>
   <si>
-    <t>Aug</t>
+    <t>Friday</t>
   </si>
   <si>
-    <t>Sep</t>
+    <t>Saturday</t>
   </si>
   <si>
-    <t>Oct</t>
+    <t>Sunday</t>
   </si>
   <si>
-    <t>Nov</t>
+    <t>Holiday</t>
   </si>
   <si>
-    <t>Dec</t>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>Festivities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,60 +99,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -156,33 +152,29 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,34 +452,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="B2" s="6">
         <v>70</v>
@@ -495,17 +487,16 @@
       <c r="C2" s="6">
         <v>66</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>96</v>
       </c>
-      <c r="E2" s="6">
-        <f>SUM(B2:D2)</f>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>49</v>
@@ -513,17 +504,16 @@
       <c r="C3" s="6">
         <v>49</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>60</v>
       </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:E13" si="0">SUM(B3:D3)</f>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>26</v>
@@ -531,174 +521,1127 @@
       <c r="C4" s="6">
         <v>48</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>46</v>
       </c>
-      <c r="E4" s="8">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>18</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>40</v>
       </c>
       <c r="D5" s="7">
         <v>47</v>
       </c>
-      <c r="E5" s="8">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
         <v>40</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>39</v>
       </c>
       <c r="D6" s="7">
         <v>63</v>
       </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
         <v>75</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>62</v>
       </c>
       <c r="D7" s="7">
         <v>50</v>
       </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
         <v>25</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>35</v>
       </c>
       <c r="D8" s="7">
         <v>52</v>
       </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
         <v>13</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>40</v>
       </c>
       <c r="D9" s="7">
         <v>63</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
         <v>24</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>35</v>
       </c>
       <c r="D10" s="7">
         <v>51</v>
       </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
         <v>39</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>48</v>
       </c>
       <c r="D11" s="7">
         <v>69</v>
       </c>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
         <v>55</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>56</v>
       </c>
       <c r="D12" s="7">
         <v>72</v>
       </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
         <v>97</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>72</v>
       </c>
       <c r="D13" s="7">
         <v>101</v>
       </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C008AD48-E66C-43BD-AE4E-2E99222ADA66}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.1</v>
+      </c>
       <c r="E13" s="8">
-        <f t="shared" si="0"/>
-        <v>270</v>
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB0F3AA-334B-464A-9CDA-3FAB8CD6C7B9}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44371</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6600F9FA-5958-4A18-8B49-E6C4DF6E82FB}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44561</v>
       </c>
     </row>
   </sheetData>
